--- a/data/trans_camb/P20-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P20-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.633117676663218</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.0304213033747211</v>
+        <v>-0.0304213033747204</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>8.032684969786391</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.390128564492447</v>
+        <v>1.183645493594683</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.601553076611854</v>
+        <v>-1.533889930477893</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.725706717229442</v>
+        <v>-3.018128495542621</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.823868902874248</v>
+        <v>3.087355143353472</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.833716408572237</v>
+        <v>2.561992757947115</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.497908277528073</v>
+        <v>-1.565651596164157</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.11404265765319</v>
+        <v>3.093975017111142</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.206643426122667</v>
+        <v>1.398759650661694</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.387908676602107</v>
+        <v>-1.28674703802325</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.372203715452331</v>
+        <v>9.167771083229571</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.252364919725724</v>
+        <v>5.573927254518708</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.854747749041173</v>
+        <v>2.602169725242044</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.85846705276344</v>
+        <v>13.10341277016708</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.63691377212369</v>
+        <v>12.30470833048257</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.489985063025204</v>
+        <v>5.719241598878363</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.478065590180099</v>
+        <v>9.642839560891003</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.145534992206017</v>
+        <v>7.068751100741704</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.259934892083247</v>
+        <v>3.376410440891235</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.4424080985837154</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.008241066259197788</v>
+        <v>-0.008241066259197599</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.664886919066821</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1401129722605579</v>
+        <v>0.1195383553031293</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3467543904664408</v>
+        <v>-0.34768188196608</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5399536263814063</v>
+        <v>-0.5643930342049231</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2696656424005464</v>
+        <v>0.3669787099832174</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1963170174279108</v>
+        <v>0.2757550423086471</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2216352530521502</v>
+        <v>-0.2464721798064575</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5135561910802151</v>
+        <v>0.5078017734413625</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1552557203041433</v>
+        <v>0.2476932043018387</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2503125254252179</v>
+        <v>-0.2328577080936493</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.821342372759513</v>
+        <v>4.136445692022511</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.378994443478265</v>
+        <v>2.681051534318406</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.529613781227245</v>
+        <v>1.409807811823194</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.303065251861971</v>
+        <v>4.781787100774221</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.579636531268387</v>
+        <v>4.173433259702738</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.171243712741592</v>
+        <v>2.168455268247137</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.197508722876651</v>
+        <v>3.061494916633496</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.288067670761462</v>
+        <v>2.379778918585863</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.087736363001659</v>
+        <v>1.226723824202625</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-1.767742865404156</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-1.265276431783912</v>
+        <v>-1.265276431783911</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.03538073216314848</v>
+        <v>-0.2107107583519632</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.742230319502403</v>
+        <v>-3.665254973265693</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8508588066468949</v>
+        <v>-0.9752247586660033</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.612018970200079</v>
+        <v>-1.576788491293001</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.117566265473063</v>
+        <v>-5.829830763831016</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.002100518903751</v>
+        <v>-8.06183246198637</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.09710664861942109</v>
+        <v>-0.008698258016328196</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.898899886040758</v>
+        <v>-3.894620213358921</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.476095496516555</v>
+        <v>-3.464143830250995</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.305708274768608</v>
+        <v>6.359066188355825</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.834655620515061</v>
+        <v>1.696300202761809</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.631489378539871</v>
+        <v>5.835865382440104</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.978360747762464</v>
+        <v>5.861517204837996</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6661291056741857</v>
+        <v>0.9246666655439397</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.024332556567204</v>
+        <v>-1.708444618885879</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.022581092044291</v>
+        <v>5.208363168671299</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3029744817129071</v>
+        <v>0.3161640795970517</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9424860652781766</v>
+        <v>1.096345702153476</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.2411366691893235</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1725955456165109</v>
+        <v>-0.1725955456165108</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.03229606948495199</v>
+        <v>-0.07125785178641296</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5584134026208125</v>
+        <v>-0.5520160215342338</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1608794456922377</v>
+        <v>-0.159004393121714</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1477074888984642</v>
+        <v>-0.1386865872563781</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.539611841115188</v>
+        <v>-0.5282072326103826</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6918512322572742</v>
+        <v>-0.7026077149737915</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01176491033840896</v>
+        <v>-0.0133677201604461</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4775695911388887</v>
+        <v>-0.4614879478353973</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4025445159067279</v>
+        <v>-0.4150330219644905</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.676086918825513</v>
+        <v>1.749521672994253</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5170028144137883</v>
+        <v>0.4871639371993145</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.468383478998367</v>
+        <v>1.47131392724116</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7422364674537036</v>
+        <v>0.8193348498515812</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08895201276767821</v>
+        <v>0.118887844746758</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2458707857237481</v>
+        <v>-0.2098192199840144</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7906393009123295</v>
+        <v>0.8289300114002995</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.04376594069001237</v>
+        <v>0.05647765620595036</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1696949848990437</v>
+        <v>0.1930327727202189</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>2.859020498579587</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>5.280044465283494</v>
+        <v>5.280044465283493</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.435343725146393</v>
+        <v>1.986318279276586</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.113276019866839</v>
+        <v>-2.189697104383834</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.891915747597299</v>
+        <v>2.984465391605272</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.602423527138045</v>
+        <v>1.400678232768781</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.161356423043771</v>
+        <v>1.160049441191052</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.235902940209203</v>
+        <v>1.256748971164122</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.837948959255229</v>
+        <v>2.85482606109248</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3271746717618949</v>
+        <v>0.3368602088038227</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.834147607177583</v>
+        <v>2.998959087986852</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.874684415840129</v>
+        <v>8.789017670112298</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.899473551886969</v>
+        <v>3.068546159368877</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.735349589008671</v>
+        <v>9.460774421870537</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.822406445842081</v>
+        <v>9.55564140610316</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.107000349092864</v>
+        <v>8.8472672005954</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.297568498467186</v>
+        <v>8.200018839233952</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.092582062688951</v>
+        <v>8.188771358533616</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.973251520079022</v>
+        <v>5.102094485441127</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.754994039724913</v>
+        <v>7.786807110621413</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2170569192546948</v>
+        <v>0.2498830213937688</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6230777389436991</v>
+        <v>-0.6427813684168426</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5730196930924767</v>
+        <v>0.5057279792803989</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2264450535269471</v>
+        <v>0.1872495238230985</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1399565679357161</v>
+        <v>0.1311533683426508</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1658987003132345</v>
+        <v>0.161030372421196</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5295880752857756</v>
+        <v>0.5559520693083286</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.00320173136746486</v>
+        <v>0.05221917231347995</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5417743846841776</v>
+        <v>0.5958356620147939</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>8.513279720154419</v>
+        <v>7.851091640897629</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.0933089464316</v>
+        <v>3.041086838333932</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>9.920121255602309</v>
+        <v>10.02504273373317</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.117902118932899</v>
+        <v>2.909538564653407</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.760565375167827</v>
+        <v>2.734723092486953</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.449213447644252</v>
+        <v>2.43811013011952</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.086099350600349</v>
+        <v>3.200958798329854</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.004322682878335</v>
+        <v>1.974705861402412</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.120342987778388</v>
+        <v>2.982774825195237</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>2.962820127061379</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.784111435791647</v>
+        <v>3.784111435791651</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.97260370693076</v>
@@ -1306,7 +1306,7 @@
         <v>4.216971370399383</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.584337094221294</v>
+        <v>4.58433709422129</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6579217022764936</v>
+        <v>0.8909751048299747</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.438920649038014</v>
+        <v>2.684445346563539</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.382546637048192</v>
+        <v>2.118195592639116</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7336088124177966</v>
+        <v>0.6975341014756095</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.7866549704231288</v>
+        <v>-0.4634399170987143</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2721652305735344</v>
+        <v>0.4889393766403816</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.746325375933409</v>
+        <v>1.454169134209349</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.963308442576207</v>
+        <v>1.690355232220088</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.037750954865351</v>
+        <v>2.142389075487185</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.10215004423386</v>
+        <v>6.320593960351665</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.140124285465191</v>
+        <v>9.036537835167161</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.965568521995587</v>
+        <v>9.322079813203578</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.350539209076489</v>
+        <v>8.469450990360109</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.695134909695034</v>
+        <v>6.800996345823005</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.267823114192568</v>
+        <v>8.772242993511364</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.486655258392608</v>
+        <v>6.15948263449028</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.945642150424571</v>
+        <v>6.591522985394878</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.702522869420152</v>
+        <v>7.569895558603331</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.562047694331363</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7178468541352589</v>
+        <v>0.7178468541352594</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.073833599906044</v>
@@ -1411,7 +1411,7 @@
         <v>1.139888567157202</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.239191111985806</v>
+        <v>1.239191111985805</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.04669800177284678</v>
+        <v>0.1321726044187796</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.6322364638002962</v>
+        <v>0.7184040873117997</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.6576220408410213</v>
+        <v>0.5086437441163022</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.09587409947040391</v>
+        <v>0.04055442234698275</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1373211936733675</v>
+        <v>-0.09668094816039433</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.01024797551560199</v>
+        <v>0.04362950733433694</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.348283453545542</v>
+        <v>0.3002837854997703</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3897689115127174</v>
+        <v>0.3439761072005377</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4213581856377301</v>
+        <v>0.4158651078330642</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.551788564733799</v>
+        <v>5.673329600472151</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>9.961202426332237</v>
+        <v>8.413083933800866</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8.776685058975085</v>
+        <v>7.672736879147103</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.205639590893151</v>
+        <v>2.18904670644584</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.848893324169667</v>
+        <v>1.854300502805356</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.215410281113675</v>
+        <v>2.12971614656897</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.308214856415662</v>
+        <v>2.149343867160472</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.452236703642844</v>
+        <v>2.352358981745918</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.771430794447666</v>
+        <v>2.583927901834576</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-3.93024625278878</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-5.120907265361127</v>
+        <v>-5.120907265361128</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.2461168368843608</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.099171070201974</v>
+        <v>-4.643314878320029</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.796406642485418</v>
+        <v>-6.779508432909899</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.222500054554196</v>
+        <v>-8.347731380190933</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.449397500785564</v>
+        <v>-5.194376749729232</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.253691899482876</v>
+        <v>-9.445709072683005</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-10.27642385947539</v>
+        <v>-10.14429227603671</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.401754961535545</v>
+        <v>-3.346728835417255</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.347653508808898</v>
+        <v>-6.242401304977211</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-7.701301600519611</v>
+        <v>-7.852294130509581</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.314458075083166</v>
+        <v>5.03104657670887</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.589012532683032</v>
+        <v>1.946534514689178</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.954925386392892</v>
+        <v>-0.5849592652409444</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.824749302896615</v>
+        <v>7.010065081969377</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.06024570132389</v>
+        <v>1.13785853427932</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.209413533840425</v>
+        <v>-1.216700641810485</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.115714227754262</v>
+        <v>4.008809059349438</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3043650330194152</v>
+        <v>-0.008151522272819607</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-2.016628669441702</v>
+        <v>-1.822745143109669</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.4331803693788673</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.5644115808748722</v>
+        <v>-0.5644115808748723</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.03171309460845179</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5694012997922164</v>
+        <v>-0.5530000095155352</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7479885889795285</v>
+        <v>-0.780769068944715</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8672614966761055</v>
+        <v>-0.8712003535656738</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4329810441830406</v>
+        <v>-0.4401997047443442</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7837923724893801</v>
+        <v>-0.755745343276323</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7860633085733651</v>
+        <v>-0.7564237801059803</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3564027686281401</v>
+        <v>-0.3476871739206466</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6593516513821146</v>
+        <v>-0.6315445634876821</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.7642990509412975</v>
+        <v>-0.7657501788241069</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.047949256858305</v>
+        <v>1.248823351057424</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4484762833944895</v>
+        <v>0.4906258722582275</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1845595332096297</v>
+        <v>-0.03422508100004646</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8679202018831739</v>
+        <v>1.069322567680812</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1762194263873657</v>
+        <v>0.2923827349179769</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1603186023980012</v>
+        <v>-0.1784483445829128</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7520716220093118</v>
+        <v>0.7041625506133682</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.06460589060068066</v>
+        <v>0.07547811322559649</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3354805155057953</v>
+        <v>-0.321362227932554</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-0.58508817500489</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-2.535707358928552</v>
+        <v>-2.535707358928553</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.1308169709831775</v>
@@ -1734,7 +1734,7 @@
         <v>1.402316902316085</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>1.236592737784964</v>
+        <v>1.236592737784963</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.080071057669973</v>
+        <v>-1.684456500903327</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.5153356610666977</v>
+        <v>-0.5598675227192222</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.393318689598071</v>
+        <v>1.357902315183204</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-6.621015630497405</v>
+        <v>-6.601265012570573</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.747841766512112</v>
+        <v>-6.710682550078231</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-6.764314423898157</v>
+        <v>-7.089381481524837</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.118498431980266</v>
+        <v>-3.221393938039925</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.732074421302233</v>
+        <v>-1.768425611528805</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.833118077490093</v>
+        <v>-1.813377729217213</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.660758426618402</v>
+        <v>5.700378982194489</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.136238436948439</v>
+        <v>7.683182900711085</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8.420886540625288</v>
+        <v>8.916615315265867</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3.266161551479821</v>
+        <v>4.011185288244026</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.958223762905714</v>
+        <v>5.029655747825619</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.950181541312664</v>
+        <v>1.7488408697087</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.527929591778788</v>
+        <v>3.217400459211628</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.186041439903726</v>
+        <v>4.640642411283882</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.964549111513431</v>
+        <v>4.286278279674598</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.05323091351414042</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.2306968844809879</v>
+        <v>-0.230696884480988</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.01749896303739316</v>
@@ -1839,7 +1839,7 @@
         <v>0.187583395762133</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1654150103627656</v>
+        <v>0.1654150103627654</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.399529504575256</v>
+        <v>-0.3467042081640068</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1700416996698693</v>
+        <v>-0.1783482450611697</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.159446621921633</v>
+        <v>0.1569655661395127</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.4721663064557024</v>
+        <v>-0.4901977254440663</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4288164262618009</v>
+        <v>-0.4773954749104298</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5047563595316873</v>
+        <v>-0.5205604441871189</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.330696585772784</v>
+        <v>-0.3560932944177082</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1990659817104621</v>
+        <v>-0.2025203326318374</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1988001413945883</v>
+        <v>-0.197282771145347</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.584037130838586</v>
+        <v>2.503761815458659</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3.126736583935152</v>
+        <v>3.152750884702326</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3.690025578213147</v>
+        <v>3.8216016632103</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4007346630987719</v>
+        <v>0.4897548744535976</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.6599615479089996</v>
+        <v>0.5909139062648959</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2468507459879707</v>
+        <v>0.2263782932863085</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5942809525733594</v>
+        <v>0.5670957351265794</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.9045937342395977</v>
+        <v>0.7742850221022722</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.6994546087841963</v>
+        <v>0.7641065430220636</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>-1.526746545413346</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.07101882144622956</v>
+        <v>0.07101882144623095</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.897246725830975</v>
+        <v>-3.805589480423553</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.416815577550373</v>
+        <v>-4.692064737242185</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.377421359465697</v>
+        <v>-2.414062260465161</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.231940458893023</v>
+        <v>-3.075338069836289</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.495867646006902</v>
+        <v>-4.316352754595446</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-3.078874747926252</v>
+        <v>-3.053039455358903</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.579205741329122</v>
+        <v>-2.610990199363569</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.490671740754147</v>
+        <v>-3.366911891130221</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.944039074214633</v>
+        <v>-1.909067657618117</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.573171315191003</v>
+        <v>1.313684918491287</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.9077221730046523</v>
+        <v>0.639407875938277</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.773056789444732</v>
+        <v>2.696314317193394</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.002910467125494</v>
+        <v>3.250695434229559</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.511706429007101</v>
+        <v>1.451429474810486</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.821218324498838</v>
+        <v>2.729071955421036</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.553685420968541</v>
+        <v>1.444614178567344</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.4103660306171714</v>
+        <v>0.4518143067431926</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.01552975531769</v>
+        <v>1.982515740863282</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>-0.2145038714562445</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.009977957502010696</v>
+        <v>0.00997795750201089</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5355073256292235</v>
+        <v>-0.5348377179597482</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6162396976708457</v>
+        <v>-0.6189706405447646</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3335684381992205</v>
+        <v>-0.3417997489458799</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.332621887285715</v>
+        <v>-0.3040296403770937</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4468119703576227</v>
+        <v>-0.4234819581614937</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2960340281542065</v>
+        <v>-0.2993940316354773</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3097148344755791</v>
+        <v>-0.3233831289656518</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4331398618907015</v>
+        <v>-0.419593806288365</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.2260497120566225</v>
+        <v>-0.2333831263573274</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3940864127019313</v>
+        <v>0.2827201166059112</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2327427972899807</v>
+        <v>0.192890761935775</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6257792488118785</v>
+        <v>0.5924379335194253</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4295437981079748</v>
+        <v>0.4685925252324272</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2205950706096339</v>
+        <v>0.2193262474817338</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4197419235852913</v>
+        <v>0.3994961666890811</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2565335491197041</v>
+        <v>0.2353972311228172</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.07066504486832177</v>
+        <v>0.07911508495427193</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.3376993990554586</v>
+        <v>0.3365785241959598</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-0.4490455638147636</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-2.556666496889433</v>
+        <v>-2.556666496889432</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>1.115911768185418</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.5167890370751523</v>
+        <v>-0.7037671073713132</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.7762271849511232</v>
+        <v>-0.8217465074079328</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.989218394162968</v>
+        <v>-1.955580257792494</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.716573644229117</v>
+        <v>-1.93601959942082</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.851161382086474</v>
+        <v>-2.866300395757544</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-4.800864582156071</v>
+        <v>-4.784716421001471</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.5212361313111207</v>
+        <v>-0.5748762492003382</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.195561117739534</v>
+        <v>-1.362584702189054</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-2.777162323564942</v>
+        <v>-2.900527688761084</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.508932378211132</v>
+        <v>3.399426420685129</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3.201589056434664</v>
+        <v>3.146517857556062</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.562517061173168</v>
+        <v>1.533077686076903</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.596322795029181</v>
+        <v>3.482033583050032</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.093065974375349</v>
+        <v>1.993155113602659</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-0.4777058439635013</v>
+        <v>-0.4513871446214423</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.685100297361992</v>
+        <v>2.738811997870013</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>2.025619771244266</v>
+        <v>1.995676684900069</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-0.1287899936396067</v>
+        <v>0.03394012031763861</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.06967765300004701</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.3967136864547525</v>
+        <v>-0.3967136864547524</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.2236513553884986</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1197778035755151</v>
+        <v>-0.1825115702440904</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2156103793346933</v>
+        <v>-0.2089473873159421</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.4415718519364114</v>
+        <v>-0.4473225274114186</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2285138271355066</v>
+        <v>-0.2567467478171276</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3745181194090842</v>
+        <v>-0.3707215902356387</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.6096451638180733</v>
+        <v>-0.6258692367719674</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.09317022562809044</v>
+        <v>-0.1021939615389668</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2211117763542025</v>
+        <v>-0.2479609381094783</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.4774167771249095</v>
+        <v>-0.4854708134723192</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.368264111209887</v>
+        <v>1.331272470861785</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.248205862845646</v>
+        <v>1.246502995374271</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.6081524423653085</v>
+        <v>0.6331507226633276</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.6900379307859102</v>
+        <v>0.6637193939567049</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.4207852290589168</v>
+        <v>0.3792181463411726</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.09458451996549</v>
+        <v>-0.08195357855157805</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.631579539714395</v>
+        <v>0.6580276065050471</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.4828524535887654</v>
+        <v>0.4699960569501908</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.01601668723471385</v>
+        <v>0.03469867434471639</v>
       </c>
     </row>
     <row r="52">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.9238388574517676</v>
+        <v>0.8761278006563514</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.4016931201311996</v>
+        <v>-0.2678256976510475</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.5128151527262437</v>
+        <v>0.5896098112064895</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.8975394596515949</v>
+        <v>0.8142461410005066</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.8663983529119935</v>
+        <v>-0.9783516162659831</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-2.091361465179537</v>
+        <v>-1.958750729226245</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>1.195209371301932</v>
+        <v>1.10131323175092</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.2540029768651156</v>
+        <v>-0.3543670949073535</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.3912284724255145</v>
+        <v>-0.3678734993612643</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>3.106223564154962</v>
+        <v>2.986637493845779</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.652622485733624</v>
+        <v>1.75259975298263</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>2.77517843027885</v>
+        <v>2.769446258451203</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>3.593712566078363</v>
+        <v>3.525665063595874</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.657838600435972</v>
+        <v>1.658810926217794</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>0.319456233589101</v>
+        <v>0.3923954465816842</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>2.974816109480037</v>
+        <v>2.913407882174574</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>1.371538605887237</v>
+        <v>1.404375272950499</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>1.177251632229483</v>
+        <v>1.275626170482527</v>
       </c>
     </row>
     <row r="55">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.2048343600553202</v>
+        <v>0.184455566941459</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.09210137344280392</v>
+        <v>-0.06185823067815157</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.1144154264731389</v>
+        <v>0.1313979123004469</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.1098688042160638</v>
+        <v>0.1025506832290193</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.1109765304136497</v>
+        <v>-0.1198789496149468</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.2631815108504981</v>
+        <v>-0.2428624272652253</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1980362569555047</v>
+        <v>0.178269596516738</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.04009524913094058</v>
+        <v>-0.05842791182549751</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.06504752558084687</v>
+        <v>-0.05926188385976047</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.8760787470217479</v>
+        <v>0.8122371660817608</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.4431387956525307</v>
+        <v>0.4951561897579455</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.7722856218009463</v>
+        <v>0.7692963336955654</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.5229488784313896</v>
+        <v>0.528012928700418</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.2453619441909708</v>
+        <v>0.2451813183757683</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.05049154757805267</v>
+        <v>0.05971427876361023</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.550378268990973</v>
+        <v>0.5508480716251595</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.2593025559318433</v>
+        <v>0.2652220360645198</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.2140639744142942</v>
+        <v>0.2320609851290235</v>
       </c>
     </row>
     <row r="58">
